--- a/Unity/Assets/Config/Excel/Datas/Drop/Drop.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Drop/Drop.xlsx
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>

--- a/Unity/Assets/Config/Excel/Datas/Drop/Drop.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Drop/Drop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>model</t>
+  </si>
+  <si>
     <t>props</t>
   </si>
   <si>
@@ -40,10 +43,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>说明</t>
+    <t>备注</t>
   </si>
   <si>
     <t>模型</t>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>交互转换ID</t>
-  </si>
-  <si>
-    <t>Water</t>
   </si>
   <si>
     <t>水滴</t>
@@ -791,8 +788,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,15 +809,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1136,430 +1144,437 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="10.4107142857143" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="5.57142857142857" customWidth="1"/>
-    <col min="3" max="3" width="6.28571428571429" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="9.57142857142857" customWidth="1"/>
-    <col min="6" max="6" width="10.1160714285714" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10.1160714285714" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="11.3571428571429" customWidth="1"/>
+    <col min="1" max="1" width="7.42857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4107142857143" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.2142857142857" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.0267857142857" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.0714285714286" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.0714285714286" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.07142857142857" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.0714285714286" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.07142857142857" style="5" customWidth="1"/>
+    <col min="11" max="11" width="14.1428571428571" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="16383" width="10.4107142857143" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="10.4107142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4">
+    <row r="4" spans="2:10">
+      <c r="B4" s="2">
         <v>9000</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2">
+        <v>20000247</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>20000247</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4">
+        <v>200000</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="2">
+        <v>9100</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20000250</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4">
         <v>200000</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J5" s="5">
         <v>10000</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="K5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="2">
+        <v>9101</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20000253</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4">
+        <v>200000</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5">
-        <v>9100</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>20000250</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2">
-        <v>200000</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5">
+      <c r="L6" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="2">
+        <v>9102</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20000251</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="2">
+        <v>9103</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20000254</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="2">
+        <v>9104</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20000258</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="2">
+        <v>9105</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20000259</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="2">
+        <v>9110</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20000262</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="1">
         <v>2001</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
-      <c r="B6">
-        <v>9101</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>20000253</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2">
-        <v>200000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6">
+    <row r="12" spans="2:12">
+      <c r="B12" s="2">
+        <v>9111</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20000262</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="1">
         <v>2200</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7">
-        <v>9102</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>20000251</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7">
+    <row r="13" spans="2:12">
+      <c r="B13" s="2">
+        <v>9112</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20000262</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="1">
         <v>2400</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
-      <c r="B8">
-        <v>9103</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>20000254</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8">
+    <row r="14" spans="2:12">
+      <c r="B14" s="2">
+        <v>9113</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20000262</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="1">
         <v>2401</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
-      <c r="B9">
-        <v>9104</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>20000258</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9">
+    <row r="15" spans="2:12">
+      <c r="B15" s="2">
+        <v>9114</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20000262</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="1">
         <v>2402</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
-      <c r="B10">
-        <v>9105</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>20000259</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10">
+    <row r="16" spans="2:12">
+      <c r="B16" s="2">
+        <v>9115</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20000262</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="1">
         <v>2403</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
-      <c r="B11">
-        <v>9110</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>20000262</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12">
-        <v>9111</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12">
-        <v>20000262</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13">
-        <v>9112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13">
-        <v>20000262</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14">
-        <v>9113</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>20000262</v>
-      </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15">
-        <v>9114</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15">
-        <v>20000262</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16">
-        <v>9115</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="17" spans="2:4">
+      <c r="B17" s="2">
+        <v>9900</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E16">
-        <v>20000262</v>
-      </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17">
-        <v>9900</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2">
+        <v>20000115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2">
+        <v>9910</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E17">
-        <v>20000115</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18">
-        <v>9910</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2">
+        <v>20000102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="2">
+        <v>9200</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E18">
-        <v>20000102</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19">
-        <v>9200</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2">
+        <v>20000260</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E19">
-        <v>20000260</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1">
+        <v>92000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="2">
+        <v>9201</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M19">
-        <v>92000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20">
-        <v>9201</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="2">
         <v>20000261</v>
       </c>
-      <c r="L20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20">
+      <c r="K20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="1">
         <v>92010001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
